--- a/UnitTest/testcase.xlsx
+++ b/UnitTest/testcase.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Date and Time of Test Run</t>
   </si>
@@ -29,6 +28,12 @@
   </si>
   <si>
     <t>Include SW and HW platforms you are testing with</t>
+  </si>
+  <si>
+    <t>SW Version</t>
+  </si>
+  <si>
+    <t>Version of SW you are testing with</t>
   </si>
   <si>
     <t>Notes</t>
@@ -108,6 +113,21 @@
 Low</t>
   </si>
   <si>
+    <t>Input box is valid</t>
+  </si>
+  <si>
+    <t>Input box</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Type in something into inputbox</t>
+  </si>
+  <si>
+    <t>Successfully inputing messages</t>
+  </si>
+  <si>
     <r>
       <t>P</t>
     </r>
@@ -119,7 +139,6 @@
       </rPr>
       <t>ass</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -133,40 +152,21 @@
       </rPr>
       <t>igh</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/crownyoung0303/EC601HW2</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>Input box</t>
-  </si>
-  <si>
-    <t>Type in something into inputbox</t>
+    <t>Button is valid</t>
   </si>
   <si>
     <t>"SEND" button</t>
   </si>
   <si>
+    <t>Click "SEND" button to send the messages to the next page</t>
+  </si>
+  <si>
     <t>Successfully sending messages</t>
   </si>
   <si>
-    <t>Click "SEND" button to send the messages to the next page</t>
-  </si>
-  <si>
-    <t>Successfully inputing messages</t>
-  </si>
-  <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>Input box is valid</t>
-  </si>
-  <si>
-    <t>Button is valid</t>
   </si>
   <si>
     <t>Display page is valid</t>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>https://github.com/crownyoung0303/EC601HW2</t>
   </si>
 </sst>
 </file>
@@ -320,797 +323,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1671724431"/>
-        <c:axId val="1671726511"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1671724431"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1671726511"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1671726511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1671724431"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663214" cy="6286500"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1400,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1481,14 +693,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="17.25" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>21</v>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1513,31 +725,19 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="38.25" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>38</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1557,28 +757,30 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="81.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:26" ht="38.25" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1599,29 +801,27 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
-        <v>1</v>
+    <row r="6" spans="1:26" ht="81.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="1"/>
@@ -1645,28 +845,28 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1689,28 +889,28 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1732,14 +932,30 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1815,7 +1031,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="31.5" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1843,7 +1059,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="31.5" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1929,13 +1145,13 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1957,13 +1173,13 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2095,7 +1311,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="12.3">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2179,7 +1395,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1">
+    <row r="25" spans="1:26" ht="12.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2207,7 +1423,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="12.3">
+    <row r="26" spans="1:26" ht="15" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2237,13 +1453,13 @@
     </row>
     <row r="27" spans="1:26" ht="12.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -29591,18 +28807,48 @@
       <c r="Y1003" s="1"/>
       <c r="Z1003" s="1"/>
     </row>
+    <row r="1004" spans="1:26" ht="12.3">
+      <c r="A1004" s="4"/>
+      <c r="B1004" s="4"/>
+      <c r="C1004" s="4"/>
+      <c r="D1004" s="4"/>
+      <c r="E1004" s="4"/>
+      <c r="F1004" s="4"/>
+      <c r="G1004" s="4"/>
+      <c r="H1004" s="4"/>
+      <c r="I1004" s="1"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+      <c r="O1004" s="1"/>
+      <c r="P1004" s="1"/>
+      <c r="Q1004" s="1"/>
+      <c r="R1004" s="1"/>
+      <c r="S1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+      <c r="W1004" s="1"/>
+      <c r="X1004" s="1"/>
+      <c r="Y1004" s="1"/>
+      <c r="Z1004" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
